--- a/data/trans_camb/P28A_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,01</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,51</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,39</t>
+          <t>-12,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,88</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,51</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-20,9</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-19,6</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-14,12</t>
+          <t>-7,75</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,32; -1,04</t>
+          <t>-15,69; -0,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,57; -10,86</t>
+          <t>-16,38; -2,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,51; -16,59</t>
+          <t>-18,89; -5,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,5; -5,59</t>
+          <t>-9,59; 3,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 24,21</t>
+          <t>-11,37; 0,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 1,09</t>
+          <t>-8,89; 3,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 9,11</t>
+          <t>-10,83; -1,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 13,26</t>
+          <t>-12,49; -2,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 5,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-29,9; -8,58</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; -9,01</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-26,23; 0,46</t>
+          <t>-12,48; -3,34</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,42%</t>
+          <t>-49,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-59,51%</t>
+          <t>-55,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,47%</t>
+          <t>-70,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>-48,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,08%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>-41,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>-53,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-55,24%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-51,81%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-37,33%</t>
+          <t>-53,89%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,64; -1,27</t>
+          <t>-76,2; -2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,87; -27,57</t>
+          <t>-80,3; -14,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,9; -37,55</t>
+          <t>-87,72; -34,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,14; -11,71</t>
+          <t>-62,93; 51,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 110,88</t>
+          <t>-75,92; 8,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,16; 8,8</t>
+          <t>-62,72; 46,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 41,1</t>
+          <t>-63,46; -4,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 64,09</t>
+          <t>-72,7; -21,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 16,65</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-70,9; -27,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-71,56; -26,41</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-61,68; 2,13</t>
+          <t>-73,71; -25,18</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,04</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,13</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,48</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,15</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,43</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-18,96</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-24,29</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-19,67</t>
+          <t>-10,23</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 22,96</t>
+          <t>-7,5; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,1; -1,45</t>
+          <t>-15,8; -2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -8,65</t>
+          <t>-17,66; -5,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,31; -2,84</t>
+          <t>-12,84; -0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -3,87</t>
+          <t>-14,1; -2,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -13,21</t>
+          <t>-14,55; -4,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,09; -14,96</t>
+          <t>-7,62; 4,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,97; -2,23</t>
+          <t>-12,55; -4,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 10,49</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-28,83; -7,44</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-33,77; -14,31</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-30,34; -7,05</t>
+          <t>-14,63; -6,53</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,73%</t>
+          <t>-57,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,51%</t>
+          <t>-74,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-65,05%</t>
+          <t>-49,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,59%</t>
+          <t>-55,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-60,8%</t>
+          <t>-64,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,5%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,01%</t>
+          <t>-56,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-53,6%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-68,64%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-55,59%</t>
+          <t>-69,86%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 101,34</t>
+          <t>-40,93; 115,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,87; -7,16</t>
+          <t>-78,56; -19,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,39; -36,71</t>
+          <t>-90,06; -41,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-86,84; -2,7</t>
+          <t>-73,85; -0,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,03; -6,94</t>
+          <t>-77,15; -15,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,45; -29,43</t>
+          <t>-82,97; -33,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,14; -41,9</t>
+          <t>-45,74; 38,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,24; -3,58</t>
+          <t>-72,03; -34,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 36,93</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-69,18; -27,29</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-81,16; -48,55</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-75,99; -22,6</t>
+          <t>-82,64; -50,66</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-19,36</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-21,8</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,29</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,51</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-26,24</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,96</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-32,71</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,99</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-23,55</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-25,77</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-26,6</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-27,6</t>
+          <t>-8,01</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -5,88</t>
+          <t>-9,36; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,06; -10,89</t>
+          <t>-10,92; -2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -8,06</t>
+          <t>-9,92; 0,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,5; -7,62</t>
+          <t>-14,14; -4,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,23; -12,8</t>
+          <t>-13,23; -3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -17,29</t>
+          <t>-14,79; -6,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -22,66</t>
+          <t>-10,44; -3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -25,26</t>
+          <t>-10,69; -3,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -14,0</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-33,78; -18,13</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-34,92; -17,26</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-35,88; -19,24</t>
+          <t>-11,48; -4,47</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-61,6%</t>
+          <t>-47,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-69,36%</t>
+          <t>-63,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-64,55%</t>
+          <t>-55,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-62,08%</t>
+          <t>-62,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-57,19%</t>
+          <t>-55,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,29%</t>
+          <t>-69,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-71,3%</t>
+          <t>-56,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-78,43%</t>
+          <t>-58,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-60,88%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-66,62%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-68,76%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-71,33%</t>
+          <t>-63,9%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,98; -16,75</t>
+          <t>-73,18; 21,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,05; -41,84</t>
+          <t>-82,14; -27,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,04; -27,17</t>
+          <t>-80,0; 8,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,4; -28,56</t>
+          <t>-80,4; -36,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,56; -32,23</t>
+          <t>-73,11; -26,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,24; -42,77</t>
+          <t>-82,36; -48,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,75; -53,96</t>
+          <t>-72,45; -30,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,4; -58,57</t>
+          <t>-71,9; -37,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,42; -38,11</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-76,27; -52,81</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-80,33; -50,43</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-83,24; -55,93</t>
+          <t>-77,61; -40,61</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,63</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,28</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,19</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-18,62</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-17,84</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-9,72</t>
+          <t>-5,34</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 13,17</t>
+          <t>-6,3; 6,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,76; -5,12</t>
+          <t>-8,66; -0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -5,81</t>
+          <t>-9,75; -1,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 2,76</t>
+          <t>-7,42; 1,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 5,76</t>
+          <t>-9,94; -2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -9,05</t>
+          <t>-9,29; -1,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,88; -6,1</t>
+          <t>-5,62; 2,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 3,23</t>
+          <t>-8,05; -2,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 5,47</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-27,04; -10,05</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-25,8; -9,45</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-18,64; -0,42</t>
+          <t>-8,31; -2,57</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>-12,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-59,4%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,72%</t>
+          <t>-59,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-35,03%</t>
+          <t>-28,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-56,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-58,36%</t>
+          <t>-51,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-52,18%</t>
+          <t>-21,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-27,12%</t>
+          <t>-53,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,49%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-59,43%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-56,92%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-31,03%</t>
+          <t>-55,29%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 69,3</t>
+          <t>-60,68; 96,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,11; -21,32</t>
+          <t>-77,71; 3,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,34; -23,79</t>
+          <t>-82,74; -14,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,48; 14,68</t>
+          <t>-59,71; 18,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 19,61</t>
+          <t>-75,34; -25,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -31,96</t>
+          <t>-73,02; -17,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -23,88</t>
+          <t>-50,65; 29,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,05; 12,34</t>
+          <t>-72,38; -29,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 21,49</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-73,48; -36,92</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-71,46; -34,67</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-51,19; -0,36</t>
+          <t>-72,46; -30,31</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-17,08</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-15,91</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-16,22</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-11,39</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-16,88</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-6,83</t>
+          <t>-4,82</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 19,36</t>
+          <t>-5,13; 4,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 4,53</t>
+          <t>-4,9; 2,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-27,78; -8,7</t>
+          <t>-8,44; -2,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 2,99</t>
+          <t>-9,05; 1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 6,33</t>
+          <t>-10,33; -0,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -0,98</t>
+          <t>-9,72; 0,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -3,12</t>
+          <t>-5,47; 1,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 9,51</t>
+          <t>-6,4; -0,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 7,12</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; -2,12</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-25,74; -8,71</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; 3,57</t>
+          <t>-7,83; -1,93</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-35,22%</t>
+          <t>-25,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-90,57%</t>
+          <t>-88,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-49,33%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>-55,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-52,47%</t>
+          <t>-50,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-53,5%</t>
+          <t>-26,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-18,13%</t>
+          <t>-43,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-46,34%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-68,71%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-27,8%</t>
+          <t>-64,78%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 157,77</t>
+          <t>-71,83; 125,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 44,25</t>
+          <t>-64,77; 65,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -58,63</t>
+          <t>-100,0; -55,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-85,62; 27,26</t>
+          <t>-70,18; 21,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 33,11</t>
+          <t>-80,15; 14,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,9; -0,47</t>
+          <t>-78,41; 8,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-79,41; -6,04</t>
+          <t>-58,29; 31,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 41,86</t>
+          <t>-68,73; -5,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 39,63</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-68,64; -6,49</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-84,73; -42,19</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-56,75; 17,36</t>
+          <t>-83,92; -29,91</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-16,61</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-13,6</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-13,99</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-12,71</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-11,84</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-10,55</t>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 7,57</t>
+          <t>-2,77; 1,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -4,29</t>
+          <t>-3,96; -0,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 0,0</t>
+          <t>-3,18; 0,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -1,55</t>
+          <t>-1,77; 0,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 11,74</t>
+          <t>-1,48; 1,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 3,99</t>
+          <t>-1,74; 1,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 1,19</t>
+          <t>-1,74; 0,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 16,3</t>
+          <t>-1,92; 0,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 4,15</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-26,51; -4,03</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-23,28; -1,92</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-23,66; -1,07</t>
+          <t>-1,78; 0,49</t>
         </is>
       </c>
     </row>
@@ -2172,7 +1818,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-52,14%</t>
+          <t>-33,12%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2182,52 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-81,91%</t>
+          <t>-64,82%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-84,22%</t>
+          <t>-56,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-56,38%</t>
+          <t>-11,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-64,18%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-75,57%</t>
+          <t>-42,62%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-42,88%</t>
+          <t>-63,91%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-52,3%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-84,98%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-79,19%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-70,59%</t>
+          <t>-49,46%</t>
         </is>
       </c>
     </row>
@@ -2270,32 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 167,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 122,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,76</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 3,01</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 10,72</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 79,57</t>
+          <t>-100,0; 141,52</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-18,09</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-21,38</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-21,79</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-21,8</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-15,87</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-19,79</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-21,55</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-16,41</t>
+          <t>-5,96</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -0,29</t>
+          <t>-4,88; 0,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -12,09</t>
+          <t>-7,2; -3,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -15,5</t>
+          <t>-8,68; -4,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -10,26</t>
+          <t>-6,09; -2,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-19,97; -6,7</t>
+          <t>-7,03; -3,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -16,12</t>
+          <t>-7,1; -3,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -15,84</t>
+          <t>-4,84; -1,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -9,52</t>
+          <t>-6,53; -3,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -5,4</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; -15,91</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; -17,62</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-21,11; -12,12</t>
+          <t>-7,21; -4,55</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-27,37%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-60,03%</t>
+          <t>-54,72%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-70,96%</t>
+          <t>-67,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-55,27%</t>
+          <t>-43,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-53,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>-54,53%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-59,59%</t>
+          <t>-34,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-59,77%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-65,09%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-49,56%</t>
+          <t>-60,9%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,93; -0,63</t>
+          <t>-44,99; 8,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-70,38; -45,91</t>
+          <t>-66,48; -37,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-79,58; -55,79</t>
+          <t>-78,1; -52,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-67,0; -38,75</t>
+          <t>-56,12; -26,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -18,68</t>
+          <t>-64,92; -39,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -49,3</t>
+          <t>-65,29; -38,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -47,85</t>
+          <t>-46,81; -18,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-56,62; -27,99</t>
+          <t>-62,5; -44,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -16,4</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-66,84; -51,63</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-72,31; -57,68</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-58,9; -38,86</t>
+          <t>-68,61; -50,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
